--- a/Exemplo base de informações.xlsx
+++ b/Exemplo base de informações.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="17">
   <si>
     <t xml:space="preserve">Codigo</t>
   </si>
@@ -55,40 +55,22 @@
     <t xml:space="preserve">Uma ai</t>
   </si>
   <si>
-    <t xml:space="preserve">027.489.070-43</t>
-  </si>
-  <si>
     <t xml:space="preserve">a</t>
   </si>
   <si>
     <t xml:space="preserve">Outra por ai</t>
   </si>
   <si>
-    <t xml:space="preserve">54.557.201/0001-13</t>
-  </si>
-  <si>
     <t xml:space="preserve">Não sei o nome</t>
   </si>
   <si>
-    <t xml:space="preserve">12.345.678/0001-00</t>
-  </si>
-  <si>
     <t xml:space="preserve">Companhia de Tal</t>
   </si>
   <si>
-    <t xml:space="preserve">123.456.789-01</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mais outra</t>
   </si>
   <si>
-    <t xml:space="preserve">36.890.800-37</t>
-  </si>
-  <si>
     <t xml:space="preserve">Essa é nova</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.084.757/0001-60</t>
   </si>
 </sst>
 </file>
@@ -186,25 +168,29 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -459,252 +445,252 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="28.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="21.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="20.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="9.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="14.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="12.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="0" t="s">
+      <c r="D2" s="1" t="n">
+        <v>2748907043</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G2" s="4" t="n">
         <f aca="false">F2/H2</f>
         <v>0.146627565982405</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2" s="1" t="n">
         <v>3410</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>12</v>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="0" t="n">
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>54557201000113</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="n">
         <v>900</v>
       </c>
-      <c r="G3" s="3" t="n">
+      <c r="G3" s="4" t="n">
         <f aca="false">F3/H3</f>
         <v>0.263929618768328</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="1" t="n">
         <v>3410</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>12</v>
+      <c r="I3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="0" t="n">
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>12345678000100</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="G4" s="3" t="n">
+      <c r="G4" s="4" t="n">
         <f aca="false">F4/H4</f>
         <v>0.146627565982405</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4" s="1" t="n">
         <v>3410</v>
       </c>
-      <c r="I4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>12</v>
+      <c r="I4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="0" t="n">
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>12345678901</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="G5" s="3" t="n">
+      <c r="G5" s="4" t="n">
         <f aca="false">F5/H5</f>
         <v>0.0879765395894428</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5" s="1" t="n">
         <v>3410</v>
       </c>
-      <c r="I5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>12</v>
+      <c r="I5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="0" t="n">
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>3689080037</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1" t="n">
         <v>210</v>
       </c>
-      <c r="G6" s="3" t="n">
+      <c r="G6" s="4" t="n">
         <f aca="false">F6/H6</f>
         <v>0.06158357771261</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6" s="1" t="n">
         <v>3410</v>
       </c>
-      <c r="I6" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>12</v>
+      <c r="I6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="0" t="n">
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>79084757000160</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="G7" s="3" t="n">
+      <c r="G7" s="4" t="n">
         <f aca="false">F7/H7</f>
         <v>0.293255131964809</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7" s="1" t="n">
         <v>3410</v>
       </c>
-      <c r="I7" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>12</v>
+      <c r="I7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
